--- a/stageA/Excel/Bus.xlsx
+++ b/stageA/Excel/Bus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avish\OneDrive\Desktop\basnat\Tar1\DB5784_7001_1752\stageA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8516A9-BDAD-4B97-B1D0-58F63C1F3FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAE46D3-67F1-4810-9F74-AE8614C558EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>BusID</t>
   </si>
@@ -68,6 +68,27 @@
   </si>
   <si>
     <t>Lamburgini 45</t>
+  </si>
+  <si>
+    <t>LicensePlate</t>
+  </si>
+  <si>
+    <t>49-391-34</t>
+  </si>
+  <si>
+    <t>12-361-04</t>
+  </si>
+  <si>
+    <t>32-692-79</t>
+  </si>
+  <si>
+    <t>84-284-85</t>
+  </si>
+  <si>
+    <t>23-593-23</t>
+  </si>
+  <si>
+    <t>67-938-91</t>
   </si>
 </sst>
 </file>
@@ -437,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -451,7 +472,7 @@
     <col min="4" max="4" width="14.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +485,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -478,8 +502,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -492,8 +519,11 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -506,8 +536,11 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -520,8 +553,11 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -534,8 +570,11 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -547,6 +586,9 @@
       </c>
       <c r="D7" t="s">
         <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
